--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_111__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_111__Reeval_Sobol_Modell_1.1.xlsx
@@ -6121,13 +6121,13 @@
                   <c:v>-1.986044883728027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.86976051330566</c:v>
+                  <c:v>26.8697624206543</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.1547647714614868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.35825777053833</c:v>
+                  <c:v>-1.358262300491333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1.999970197677612</c:v>
@@ -6142,25 +6142,25 @@
                   <c:v>45.35227203369141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.77128982543945</c:v>
+                  <c:v>55.77128601074219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.112088441848755</c:v>
+                  <c:v>-1.112090706825256</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.113681793212891</c:v>
+                  <c:v>-1.113688588142395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.306424617767334</c:v>
+                  <c:v>-2.306429386138916</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.947875142097473</c:v>
+                  <c:v>1.947879672050476</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>49.01963043212891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.83405685424805</c:v>
+                  <c:v>37.83406066894531</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>54.02549743652344</c:v>
@@ -6169,7 +6169,7 @@
                   <c:v>49.09830856323242</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.74263954162598</c:v>
+                  <c:v>16.74263763427734</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>54.12728881835938</c:v>
@@ -6184,19 +6184,19 @@
                   <c:v>44.04689788818359</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.5344131588935852</c:v>
+                  <c:v>-0.5344176888465881</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>49.74937438964844</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54.44754791259766</c:v>
+                  <c:v>54.44755554199219</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.900544166564941</c:v>
+                  <c:v>-1.900551080703735</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.07026481628418</c:v>
+                  <c:v>11.0702657699585</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.6611495018005371</c:v>
@@ -6205,58 +6205,58 @@
                   <c:v>55.61219787597656</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.8518000245094299</c:v>
+                  <c:v>0.851795494556427</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>55.23086547851562</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.609870433807373</c:v>
+                  <c:v>-2.609872579574585</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5560818314552307</c:v>
+                  <c:v>0.5560795068740845</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.727803468704224</c:v>
+                  <c:v>-2.727801084518433</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.88251805305481</c:v>
+                  <c:v>-2.882515668869019</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>5.167349338531494</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.589742660522461</c:v>
+                  <c:v>-1.589740395545959</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.5965629816055298</c:v>
+                  <c:v>-0.5965652465820312</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>54.91604232788086</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>47.83625411987305</c:v>
+                  <c:v>47.83624649047852</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-1.128705739974976</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.8449889421463013</c:v>
+                  <c:v>-0.8449844121932983</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.61242008209229</c:v>
+                  <c:v>13.61241817474365</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>48.51249313354492</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>49.52556991577148</c:v>
+                  <c:v>49.52557373046875</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.187160491943359</c:v>
+                  <c:v>-2.187162637710571</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>31.33584976196289</c:v>
+                  <c:v>31.33584785461426</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>50.47817611694336</c:v>
@@ -6268,46 +6268,46 @@
                   <c:v>47.93181228637695</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.4527966380119324</c:v>
+                  <c:v>0.4527989327907562</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45.68019485473633</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-3.441342115402222</c:v>
+                  <c:v>-3.441344261169434</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.649407386779785</c:v>
+                  <c:v>7.649402618408203</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42.89433288574219</c:v>
+                  <c:v>42.89432525634766</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>52.09860610961914</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.238341569900513</c:v>
+                  <c:v>-1.238343834877014</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.464152991771698</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>54.0675163269043</c:v>
+                  <c:v>54.06751251220703</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>46.92276382446289</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-3.033934354782104</c:v>
+                  <c:v>-3.033929586410522</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>43.19812393188477</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.147114753723145</c:v>
+                  <c:v>-1.147117018699646</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43.40932083129883</c:v>
+                  <c:v>43.40933227539062</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>48.89054870605469</c:v>
@@ -6316,22 +6316,22 @@
                   <c:v>-0.5126373767852783</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-3.447195768356323</c:v>
+                  <c:v>-3.447193384170532</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.113681793212891</c:v>
+                  <c:v>-1.113688588142395</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>37.87329864501953</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-1.905185222625732</c:v>
+                  <c:v>-1.905187487602234</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.2148858457803726</c:v>
+                  <c:v>0.21488356590271</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-1.829960346221924</c:v>
+                  <c:v>-1.829955816268921</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>49.9441032409668</c:v>
@@ -6340,16 +6340,16 @@
                   <c:v>47.04174423217773</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-1.113681793212891</c:v>
+                  <c:v>-1.113688588142395</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.7856725454330444</c:v>
+                  <c:v>0.785670280456543</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>46.73118209838867</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-3.030752182006836</c:v>
+                  <c:v>-3.030756711959839</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>36.35235977172852</c:v>
@@ -6370,7 +6370,7 @@
                   <c:v>0.3418000340461731</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>49.31937408447266</c:v>
+                  <c:v>49.31936645507812</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>3.544677257537842</c:v>
@@ -6382,31 +6382,31 @@
                   <c:v>-3.332775354385376</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.2225425988435745</c:v>
+                  <c:v>0.2225380390882492</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.113681793212891</c:v>
+                  <c:v>-1.113688588142395</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.113681793212891</c:v>
+                  <c:v>-1.113688588142395</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>53.17230606079102</c:v>
+                  <c:v>53.17230987548828</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>55.43156051635742</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-3.748286724090576</c:v>
+                  <c:v>-3.748284339904785</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.03082758188247681</c:v>
+                  <c:v>-0.03082986176013947</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.036227464675903</c:v>
+                  <c:v>2.036225318908691</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.468447685241699</c:v>
+                  <c:v>9.468446731567383</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>46.07123565673828</c:v>
@@ -6415,16 +6415,16 @@
                   <c:v>51.8126220703125</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>41.19669342041016</c:v>
+                  <c:v>41.19669723510742</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>50.38584136962891</c:v>
+                  <c:v>50.38583755493164</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>54.89693069458008</c:v>
+                  <c:v>54.89692687988281</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-2.221819877624512</c:v>
+                  <c:v>-2.221817493438721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7151,7 +7151,7 @@
         <v>34.7122</v>
       </c>
       <c r="F3">
-        <v>26.86976051330566</v>
+        <v>26.8697624206543</v>
       </c>
       <c r="G3">
         <v>77</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.35825777053833</v>
+        <v>-1.358262300491333</v>
       </c>
       <c r="G5">
         <v>77</v>
@@ -7351,7 +7351,7 @@
         <v>49.6799</v>
       </c>
       <c r="F10">
-        <v>55.77128982543945</v>
+        <v>55.77128601074219</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-1.112088441848755</v>
+        <v>-1.112090706825256</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-1.113681793212891</v>
+        <v>-1.113688588142395</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-2.306424617767334</v>
+        <v>-2.306429386138916</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.947875142097473</v>
+        <v>1.947879672050476</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>26.5051</v>
       </c>
       <c r="F16">
-        <v>37.83405685424805</v>
+        <v>37.83406066894531</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.74263954162598</v>
+        <v>16.74263763427734</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.5344131588935852</v>
+        <v>-0.5344176888465881</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>49.6745</v>
       </c>
       <c r="F26">
-        <v>54.44754791259766</v>
+        <v>54.44755554199219</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-1.900544166564941</v>
+        <v>-1.900551080703735</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>11.07026481628418</v>
+        <v>11.0702657699585</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>51.9912</v>
       </c>
       <c r="F31">
-        <v>0.8518000245094299</v>
+        <v>0.851795494556427</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-2.609870433807373</v>
+        <v>-2.609872579574585</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.5560818314552307</v>
+        <v>0.5560795068740845</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-2.727803468704224</v>
+        <v>-2.727801084518433</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-2.88251805305481</v>
+        <v>-2.882515668869019</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-1.589742660522461</v>
+        <v>-1.589740395545959</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-0.5965629816055298</v>
+        <v>-0.5965652465820312</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>45.4106</v>
       </c>
       <c r="F41">
-        <v>47.83625411987305</v>
+        <v>47.83624649047852</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.8449889421463013</v>
+        <v>-0.8449844121932983</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>13.61242008209229</v>
+        <v>13.61241817474365</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>49.825</v>
       </c>
       <c r="F46">
-        <v>49.52556991577148</v>
+        <v>49.52557373046875</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-2.187160491943359</v>
+        <v>-2.187162637710571</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>60.9577</v>
       </c>
       <c r="F48">
-        <v>31.33584976196289</v>
+        <v>31.33584785461426</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.4527966380119324</v>
+        <v>0.4527989327907562</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-3.441342115402222</v>
+        <v>-3.441344261169434</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>39.3649</v>
       </c>
       <c r="F55">
-        <v>7.649407386779785</v>
+        <v>7.649402618408203</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>48.7071</v>
       </c>
       <c r="F56">
-        <v>42.89433288574219</v>
+        <v>42.89432525634766</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>-1.238341569900513</v>
+        <v>-1.238343834877014</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>52.8419</v>
       </c>
       <c r="F60">
-        <v>54.0675163269043</v>
+        <v>54.06751251220703</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-3.033934354782104</v>
+        <v>-3.033929586410522</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-1.147114753723145</v>
+        <v>-1.147117018699646</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>51.173</v>
       </c>
       <c r="F65">
-        <v>43.40932083129883</v>
+        <v>43.40933227539062</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-3.447195768356323</v>
+        <v>-3.447193384170532</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-1.113681793212891</v>
+        <v>-1.113688588142395</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-1.905185222625732</v>
+        <v>-1.905187487602234</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.2148858457803726</v>
+        <v>0.21488356590271</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>-1.829960346221924</v>
+        <v>-1.829955816268921</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-1.113681793212891</v>
+        <v>-1.113688588142395</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.7856725454330444</v>
+        <v>0.785670280456543</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-3.030752182006836</v>
+        <v>-3.030756711959839</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>45.8522</v>
       </c>
       <c r="F86">
-        <v>49.31937408447266</v>
+        <v>49.31936645507812</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>50.182</v>
       </c>
       <c r="F90">
-        <v>0.2225425988435745</v>
+        <v>0.2225380390882492</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-1.113681793212891</v>
+        <v>-1.113688588142395</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-1.113681793212891</v>
+        <v>-1.113688588142395</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>48.8924</v>
       </c>
       <c r="F93">
-        <v>53.17230606079102</v>
+        <v>53.17230987548828</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.387</v>
       </c>
       <c r="F95">
-        <v>-3.748286724090576</v>
+        <v>-3.748284339904785</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>-0.03082758188247681</v>
+        <v>-0.03082986176013947</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>2.036227464675903</v>
+        <v>2.036225318908691</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>9.468447685241699</v>
+        <v>9.468446731567383</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>41.19669342041016</v>
+        <v>41.19669723510742</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>44.8161</v>
       </c>
       <c r="F102">
-        <v>50.38584136962891</v>
+        <v>50.38583755493164</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>58.1678</v>
       </c>
       <c r="F103">
-        <v>54.89693069458008</v>
+        <v>54.89692687988281</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>-2.221819877624512</v>
+        <v>-2.221817493438721</v>
       </c>
     </row>
     <row r="105" spans="1:6">
